--- a/data/Everything.xlsx
+++ b/data/Everything.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Quiz\ZChineseP\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB24124-7C4C-4636-B3FB-D660CFFF6DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96CF043C-4BAE-4E0F-8F2E-B9427F2730B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13260" xr2:uid="{97CBE051-57A5-41E3-87DA-2837D7117692}"/>
   </bookViews>
@@ -99,9 +99,6 @@
     <t>舉辦</t>
   </si>
   <si>
-    <t>四脚朝天</t>
-  </si>
-  <si>
     <t>戰戰兢兢</t>
   </si>
   <si>
@@ -253,6 +250,9 @@
   </si>
   <si>
     <t>可惜</t>
+  </si>
+  <si>
+    <t>四腳朝天</t>
   </si>
 </sst>
 </file>
@@ -633,7 +633,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BD7761B-4BFF-4633-8F81-F9821C6B14BA}">
   <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -852,7 +854,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -866,7 +868,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -880,7 +882,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -922,7 +924,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -936,7 +938,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -950,7 +952,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -964,7 +966,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -978,7 +980,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -992,7 +994,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -1006,7 +1008,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -1020,7 +1022,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -1034,7 +1036,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -1048,7 +1050,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -1062,7 +1064,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -1076,7 +1078,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -1091,7 +1093,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C33">
         <v>2</v>
@@ -1106,7 +1108,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C34">
         <v>2</v>
@@ -1121,7 +1123,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C35">
         <v>2</v>
@@ -1136,7 +1138,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C36">
         <v>2</v>
@@ -1151,7 +1153,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C37">
         <v>2</v>
@@ -1166,7 +1168,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C38">
         <v>2</v>
@@ -1181,7 +1183,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C39">
         <v>2</v>
@@ -1196,7 +1198,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C40">
         <v>2</v>
@@ -1211,7 +1213,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C41">
         <v>2</v>
@@ -1226,7 +1228,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C42">
         <v>2</v>
@@ -1241,7 +1243,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C43">
         <v>2</v>
@@ -1256,7 +1258,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C44">
         <v>2</v>
@@ -1271,7 +1273,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C45">
         <v>2</v>
@@ -1286,7 +1288,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C46">
         <v>2</v>
@@ -1301,7 +1303,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C47">
         <v>2</v>
@@ -1316,7 +1318,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C48">
         <v>2</v>
@@ -1331,7 +1333,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C49">
         <v>2</v>
@@ -1346,7 +1348,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C50">
         <v>2</v>
@@ -1361,7 +1363,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C51">
         <v>2</v>
@@ -1376,7 +1378,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C52">
         <v>2</v>
@@ -1391,7 +1393,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C53">
         <v>2</v>
@@ -1406,7 +1408,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C54">
         <v>2</v>
@@ -1421,7 +1423,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C55">
         <v>2</v>
@@ -1436,7 +1438,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C56">
         <v>2</v>
@@ -1451,7 +1453,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C57">
         <v>2</v>
@@ -1466,7 +1468,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C58">
         <v>2</v>
@@ -1481,7 +1483,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C59">
         <v>2</v>
@@ -1496,7 +1498,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C60">
         <v>2</v>
@@ -1525,7 +1527,7 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -1533,7 +1535,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -1541,7 +1543,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -1549,7 +1551,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -1557,7 +1559,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -1565,7 +1567,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -1573,7 +1575,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -1581,7 +1583,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -1589,7 +1591,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
